--- a/RxNorm/Opioid/Opioid_Classes.xlsx
+++ b/RxNorm/Opioid/Opioid_Classes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\opiod_list\Atomatic_Code_Sets\RxNorm\Opioid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056D6C5F-6DF2-4240-85AC-8287F2C1BF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95FC5D-ED5E-4276-90A7-9374363EAD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19390" windowHeight="20970" xr2:uid="{5F1F9045-F344-4C6D-A221-4868279D0F01}"/>
+    <workbookView xWindow="33285" yWindow="-16200" windowWidth="14610" windowHeight="16305" xr2:uid="{5F1F9045-F344-4C6D-A221-4868279D0F01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>rela</t>
   </si>
@@ -50,24 +50,6 @@
     <t>className</t>
   </si>
   <si>
-    <t>MESH</t>
-  </si>
-  <si>
-    <t>D000701</t>
-  </si>
-  <si>
-    <t>Analgesics, Opioid</t>
-  </si>
-  <si>
-    <t>D009294</t>
-  </si>
-  <si>
-    <t>Narcotics</t>
-  </si>
-  <si>
-    <t>has_vaclass</t>
-  </si>
-  <si>
     <t>VA</t>
   </si>
   <si>
@@ -77,9 +59,6 @@
     <t>OPIOID ANALGESICS</t>
   </si>
   <si>
-    <t>has_vaclass_extended</t>
-  </si>
-  <si>
     <t>SNOMEDCT</t>
   </si>
   <si>
@@ -99,6 +78,12 @@
   </si>
   <si>
     <t>Morphinan opioid-containing product</t>
+  </si>
+  <si>
+    <t>has_VAClass</t>
+  </si>
+  <si>
+    <t>has_VAClass_extended</t>
   </si>
 </sst>
 </file>
@@ -458,22 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501694F7-B3F9-4ADF-983E-B30C99CA4AA7}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.90625" customWidth="1"/>
-    <col min="4" max="4" width="33.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +472,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -498,85 +486,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1">
+        <v>350297008</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>350294001</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
-        <v>350297008</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>350294001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>